--- a/ExcelFiles/Employee_Info.xlsx
+++ b/ExcelFiles/Employee_Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pytest_clone\Pytest_clone\Pytest_OrangeHRM\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpytest_clone\Pytest_OrangeHRM\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE879A78-D727-4B0D-A78C-1599D2A8439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57259AC-3CA7-436A-92AC-AAED491ECBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>Employee_Id</t>
   </si>
   <si>
-    <t>Qwetry Qwetry Lname</t>
+    <t>FName Mname LName</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
